--- a/Assets/Resources/ExcelDB/SkillDB.xlsx
+++ b/Assets/Resources/ExcelDB/SkillDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONG\Desktop\개발\TIL\20241126\외부데이터로드\ExcelToJsonWizard.v1.0.6\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7DCFD86-77C1-42C8-950A-800A20FA3EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D37CC3-D907-4666-B490-5341CED913E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8DA27A1E-3B5E-4E5F-A612-17944FE6AB8A}"/>
+    <workbookView xWindow="5640" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{8DA27A1E-3B5E-4E5F-A612-17944FE6AB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -98,81 +96,91 @@
     <t>ID</t>
   </si>
   <si>
-    <t>TestSkill0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestSkill0Desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Passive</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TestSkill1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestSkill1Desc</t>
-  </si>
-  <si>
     <t>Default</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TestSkill2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestSkill2Desc</t>
-  </si>
-  <si>
     <t>Ultimate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TestSkill3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestSkill3Desc</t>
-  </si>
-  <si>
-    <t>TestSkill4</t>
-  </si>
-  <si>
-    <t>TestSkill4Desc</t>
-  </si>
-  <si>
-    <t>TestSkill5</t>
-  </si>
-  <si>
-    <t>TestSkill5Desc</t>
-  </si>
-  <si>
-    <t>TestSkill6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestSkill6Desc</t>
-  </si>
-  <si>
-    <t>TestSkill7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestSkill7Desc</t>
-  </si>
-  <si>
-    <t>TestSkill8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TestSkill8Desc</t>
-  </si>
-  <si>
     <t>Ultimate</t>
+  </si>
+  <si>
+    <t>요정의 가호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>천상의 낙화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>매지컬 버스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>무수히 많은 검기로 적들을 벤다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여제의 축복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하늘에서 거대한 유성을 떨어뜨린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방어력이 50% 증가한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전방에 폭발을 일으킨다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력이 50% 증가한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>어둠의 단죄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>칠흑의 서약</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변을 회전하는 검기로 공격한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자연의 축복</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별빛 강림</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격력과 방어력이 25% 증가한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적에게 관통하는 화살을 발사한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대량의 화살을 하늘로 발사하여 쏟아지게 한다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피어싱 애로우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -571,7 +579,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -671,13 +679,13 @@
         <v>12000</v>
       </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
       </c>
       <c r="E4">
         <v>10</v>
@@ -700,13 +708,13 @@
         <v>12001</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>5</v>
@@ -729,13 +737,13 @@
         <v>12002</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -758,13 +766,13 @@
         <v>12003</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -787,13 +795,13 @@
         <v>12004</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>5</v>
@@ -816,13 +824,13 @@
         <v>12005</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -845,13 +853,13 @@
         <v>12006</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>10</v>
@@ -874,13 +882,13 @@
         <v>12007</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>5</v>
@@ -903,13 +911,13 @@
         <v>12008</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>3</v>

--- a/Assets/Resources/ExcelDB/SkillDB.xlsx
+++ b/Assets/Resources/ExcelDB/SkillDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity_Project\IdleSoul\Assets\Resources\ExcelDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D37CC3-D907-4666-B490-5341CED913E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6B0F69-AE28-4DE1-9947-3DE768E74E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="2610" windowWidth="21600" windowHeight="11385" xr2:uid="{8DA27A1E-3B5E-4E5F-A612-17944FE6AB8A}"/>
+    <workbookView xWindow="34260" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{8DA27A1E-3B5E-4E5F-A612-17944FE6AB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>key</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,6 +180,26 @@
   </si>
   <si>
     <t>피어싱 애로우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장미의 가시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장미 폭풍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스칼렛 템페스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>적들을 추적하는 붉은 폭풍을 날린다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 방향으로 적을 관통하는 붉은 폭풍을 날린다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -576,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64771DD9-2219-4333-B354-E0015CA29908}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -935,6 +955,93 @@
         <v>500</v>
       </c>
     </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12009</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="F13">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>12011</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>500</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
